--- a/BackTest/2019-11-12 BackTest PIVX.xlsx
+++ b/BackTest/2019-11-12 BackTest PIVX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M111"/>
+  <dimension ref="A1:N129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,24 +394,24 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>high_check</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
@@ -425,6 +425,11 @@
       <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -436,37 +441,40 @@
         <v>282</v>
       </c>
       <c r="C2" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D2" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E2" t="n">
         <v>282</v>
       </c>
       <c r="F2" t="n">
-        <v>3739.5524</v>
+        <v>5769.6308</v>
       </c>
       <c r="G2" t="n">
-        <v>275.3333333333333</v>
+        <v>304.1712999999941</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C3" t="n">
         <v>283</v>
@@ -475,37 +483,34 @@
         <v>283</v>
       </c>
       <c r="E3" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F3" t="n">
-        <v>200</v>
+        <v>935.5991</v>
       </c>
       <c r="G3" t="n">
-        <v>275.7</v>
+        <v>1239.770399999994</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>283</v>
-      </c>
-      <c r="J3" t="n">
-        <v>292.9</v>
-      </c>
-      <c r="K3" t="n">
-        <v>283</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C4" t="n">
         <v>283</v>
@@ -514,37 +519,34 @@
         <v>283</v>
       </c>
       <c r="E4" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F4" t="n">
-        <v>400</v>
+        <v>217.6885</v>
       </c>
       <c r="G4" t="n">
-        <v>276.05</v>
+        <v>1239.770399999994</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="n">
-        <v>283</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C5" t="n">
         <v>283</v>
@@ -553,270 +555,271 @@
         <v>283</v>
       </c>
       <c r="E5" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F5" t="n">
-        <v>3035.9038</v>
+        <v>186.57</v>
       </c>
       <c r="G5" t="n">
-        <v>276.4</v>
+        <v>1239.770399999994</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>283</v>
-      </c>
-      <c r="J5" t="n">
-        <v>292.9</v>
-      </c>
-      <c r="K5" t="n">
-        <v>283</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C6" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D6" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E6" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F6" t="n">
-        <v>330</v>
+        <v>2342</v>
       </c>
       <c r="G6" t="n">
-        <v>276.8166666666667</v>
+        <v>1239.770399999994</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>283</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C7" t="n">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D7" t="n">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E7" t="n">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F7" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G7" t="n">
-        <v>277.2166666666666</v>
+        <v>1039.770399999994</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
-        <v>283</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C8" t="n">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D8" t="n">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E8" t="n">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F8" t="n">
-        <v>2786</v>
+        <v>214</v>
       </c>
       <c r="G8" t="n">
-        <v>277.6666666666667</v>
+        <v>1039.770399999994</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>280</v>
+      </c>
       <c r="K8" t="n">
-        <v>283</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C9" t="n">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D9" t="n">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E9" t="n">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F9" t="n">
-        <v>9093</v>
+        <v>1491</v>
       </c>
       <c r="G9" t="n">
-        <v>278.0833333333333</v>
+        <v>2530.770399999994</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>280</v>
+      </c>
       <c r="K9" t="n">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>waiting..</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C10" t="n">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D10" t="n">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E10" t="n">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="F10" t="n">
-        <v>3741</v>
+        <v>7991.5008</v>
       </c>
       <c r="G10" t="n">
-        <v>278.4833333333333</v>
+        <v>-5460.730400000006</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>283</v>
+      </c>
       <c r="K10" t="n">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>waiting..</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C11" t="n">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D11" t="n">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E11" t="n">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F11" t="n">
-        <v>952</v>
+        <v>1300</v>
       </c>
       <c r="G11" t="n">
-        <v>278.8833333333333</v>
+        <v>-6760.730400000006</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>284</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>282</v>
+      </c>
       <c r="K11" t="n">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>waiting..</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -826,1132 +829,1315 @@
         <v>280</v>
       </c>
       <c r="C12" t="n">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D12" t="n">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E12" t="n">
         <v>280</v>
       </c>
       <c r="F12" t="n">
-        <v>150</v>
+        <v>2800</v>
       </c>
       <c r="G12" t="n">
-        <v>279.2</v>
+        <v>-6760.730400000006</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>285</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>293.9</v>
+        <v>280</v>
       </c>
       <c r="K12" t="n">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>waiting..</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C13" t="n">
         <v>280</v>
       </c>
       <c r="D13" t="n">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E13" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F13" t="n">
-        <v>449.6397</v>
+        <v>1200</v>
       </c>
       <c r="G13" t="n">
-        <v>279.4666666666666</v>
+        <v>-6760.730400000006</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>291.8</v>
+        <v>280</v>
       </c>
       <c r="K13" t="n">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>waiting..</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="C14" t="n">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D14" t="n">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E14" t="n">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="F14" t="n">
-        <v>9952.327799999999</v>
+        <v>610.003</v>
       </c>
       <c r="G14" t="n">
-        <v>279.8666666666667</v>
+        <v>-6760.730400000006</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>280</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>280</v>
+      </c>
       <c r="K14" t="n">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>waiting..</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C15" t="n">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="D15" t="n">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="E15" t="n">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="F15" t="n">
         <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>280.1166666666667</v>
+        <v>-6770.730400000006</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>285</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>280</v>
       </c>
       <c r="K15" t="n">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>waiting..</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="C16" t="n">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="D16" t="n">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="E16" t="n">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="F16" t="n">
-        <v>14222.8224</v>
+        <v>4.975</v>
       </c>
       <c r="G16" t="n">
-        <v>280.45</v>
+        <v>-6770.730400000006</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>274</v>
       </c>
       <c r="K16" t="n">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>waiting..</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="C17" t="n">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="D17" t="n">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="E17" t="n">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="F17" t="n">
-        <v>6212.6026</v>
+        <v>5071.7346</v>
       </c>
       <c r="G17" t="n">
-        <v>280.7333333333333</v>
+        <v>-6770.730400000006</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>274</v>
       </c>
       <c r="K17" t="n">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>waiting..</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="C18" t="n">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="D18" t="n">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="E18" t="n">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="F18" t="n">
-        <v>1210</v>
+        <v>130.5887</v>
       </c>
       <c r="G18" t="n">
-        <v>281.0333333333334</v>
+        <v>-6640.141700000006</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>274</v>
       </c>
       <c r="K18" t="n">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>waiting..</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="C19" t="n">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D19" t="n">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="E19" t="n">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="F19" t="n">
-        <v>1321.0375</v>
+        <v>200</v>
       </c>
       <c r="G19" t="n">
-        <v>281.3</v>
+        <v>-6840.141700000006</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>279</v>
       </c>
       <c r="K19" t="n">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>waiting..</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="C20" t="n">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="D20" t="n">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="E20" t="n">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="F20" t="n">
-        <v>7602.7016</v>
+        <v>4492</v>
       </c>
       <c r="G20" t="n">
-        <v>281.4666666666666</v>
+        <v>-2348.141700000006</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>waiting..</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="C21" t="n">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="D21" t="n">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="E21" t="n">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="F21" t="n">
-        <v>7760.4304</v>
+        <v>4676</v>
       </c>
       <c r="G21" t="n">
-        <v>281.65</v>
+        <v>-2348.141700000006</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>지정 매도</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>1.029982332155477</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="C22" t="n">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="D22" t="n">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="E22" t="n">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="F22" t="n">
-        <v>3375.5844</v>
+        <v>3152.5282</v>
       </c>
       <c r="G22" t="n">
-        <v>281.8833333333333</v>
+        <v>-2348.141700000006</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
         <v>280</v>
       </c>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="C23" t="n">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="D23" t="n">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="E23" t="n">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="F23" t="n">
-        <v>4037.7288</v>
+        <v>410</v>
       </c>
       <c r="G23" t="n">
-        <v>282.25</v>
+        <v>-1938.141700000006</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
         <v>280</v>
       </c>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="C24" t="n">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D24" t="n">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="E24" t="n">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="F24" t="n">
-        <v>1037.8284</v>
+        <v>321</v>
       </c>
       <c r="G24" t="n">
-        <v>282.5166666666667</v>
+        <v>-1938.141700000006</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>280</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="C25" t="n">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="D25" t="n">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="E25" t="n">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="F25" t="n">
-        <v>1731.8041</v>
+        <v>2232</v>
       </c>
       <c r="G25" t="n">
-        <v>282.8166666666667</v>
+        <v>-1938.141700000006</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>280</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="C26" t="n">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="D26" t="n">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="E26" t="n">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="F26" t="n">
-        <v>12648.6831</v>
+        <v>693.1609</v>
       </c>
       <c r="G26" t="n">
-        <v>283.0333333333334</v>
+        <v>-1938.141700000006</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>280</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C27" t="n">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D27" t="n">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E27" t="n">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="F27" t="n">
-        <v>6308.3726</v>
+        <v>130</v>
       </c>
       <c r="G27" t="n">
-        <v>283.15</v>
+        <v>-1938.141700000006</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>280</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C28" t="n">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D28" t="n">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E28" t="n">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F28" t="n">
-        <v>7699.3455</v>
+        <v>589.3314</v>
       </c>
       <c r="G28" t="n">
-        <v>283.2666666666667</v>
+        <v>-1938.141700000006</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>280</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C29" t="n">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D29" t="n">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="E29" t="n">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="F29" t="n">
-        <v>553.9881</v>
+        <v>340.2137</v>
       </c>
       <c r="G29" t="n">
-        <v>283.4166666666667</v>
+        <v>-1597.928000000006</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>280</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="C30" t="n">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="D30" t="n">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="E30" t="n">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="F30" t="n">
-        <v>1198.6063</v>
+        <v>2236</v>
       </c>
       <c r="G30" t="n">
-        <v>283.5833333333333</v>
+        <v>-1597.928000000006</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>280</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="C31" t="n">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="D31" t="n">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="E31" t="n">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="F31" t="n">
-        <v>110</v>
+        <v>3739.5524</v>
       </c>
       <c r="G31" t="n">
-        <v>283.7333333333333</v>
+        <v>2141.624399999994</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>280</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="C32" t="n">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="D32" t="n">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="E32" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="F32" t="n">
-        <v>5983.8562</v>
+        <v>200</v>
       </c>
       <c r="G32" t="n">
-        <v>283.8833333333333</v>
+        <v>2141.624399999994</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>280</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="C33" t="n">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D33" t="n">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="E33" t="n">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="F33" t="n">
-        <v>4054.3407</v>
+        <v>400</v>
       </c>
       <c r="G33" t="n">
-        <v>284.05</v>
+        <v>2141.624399999994</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>280</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="C34" t="n">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="D34" t="n">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="E34" t="n">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="F34" t="n">
-        <v>585.7668</v>
+        <v>3035.9038</v>
       </c>
       <c r="G34" t="n">
-        <v>284.1666666666667</v>
+        <v>2141.624399999994</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>280</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="C35" t="n">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="D35" t="n">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="E35" t="n">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="F35" t="n">
-        <v>2685.3778</v>
+        <v>330</v>
       </c>
       <c r="G35" t="n">
-        <v>284.3</v>
+        <v>2471.624399999994</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>280</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C36" t="n">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D36" t="n">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="E36" t="n">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F36" t="n">
-        <v>786.4417</v>
+        <v>300</v>
       </c>
       <c r="G36" t="n">
-        <v>284.4</v>
+        <v>2171.624399999994</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>280</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C37" t="n">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D37" t="n">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="E37" t="n">
         <v>283</v>
       </c>
       <c r="F37" t="n">
-        <v>8799.8923</v>
+        <v>2786</v>
       </c>
       <c r="G37" t="n">
-        <v>284.4833333333333</v>
+        <v>4957.624399999994</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>280</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C38" t="n">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D38" t="n">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E38" t="n">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="F38" t="n">
-        <v>129.4357</v>
+        <v>9093</v>
       </c>
       <c r="G38" t="n">
-        <v>284.65</v>
+        <v>14050.62439999999</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>280</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C39" t="n">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D39" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E39" t="n">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F39" t="n">
-        <v>958.7319</v>
+        <v>3741</v>
       </c>
       <c r="G39" t="n">
-        <v>284.8</v>
+        <v>10309.62439999999</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>280</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C40" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D40" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E40" t="n">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F40" t="n">
-        <v>5394.9998</v>
+        <v>952</v>
       </c>
       <c r="G40" t="n">
-        <v>284.9</v>
+        <v>11261.62439999999</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>280</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C41" t="n">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D41" t="n">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E41" t="n">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F41" t="n">
-        <v>540.5583</v>
+        <v>150</v>
       </c>
       <c r="G41" t="n">
-        <v>284.95</v>
+        <v>11111.62439999999</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>280</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C42" t="n">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D42" t="n">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E42" t="n">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F42" t="n">
-        <v>542.2474</v>
+        <v>449.6397</v>
       </c>
       <c r="G42" t="n">
-        <v>285.0666666666667</v>
+        <v>10661.98469999999</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>280</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1970,317 +2156,409 @@
         <v>285</v>
       </c>
       <c r="F43" t="n">
-        <v>70</v>
+        <v>9952.327799999999</v>
       </c>
       <c r="G43" t="n">
-        <v>285.15</v>
+        <v>20614.31249999999</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>280</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C44" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D44" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E44" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F44" t="n">
-        <v>43.0925</v>
+        <v>10</v>
       </c>
       <c r="G44" t="n">
-        <v>285.2</v>
+        <v>20604.31249999999</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>280</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C45" t="n">
+        <v>287</v>
+      </c>
+      <c r="D45" t="n">
+        <v>287</v>
+      </c>
+      <c r="E45" t="n">
         <v>286</v>
       </c>
-      <c r="D45" t="n">
-        <v>286</v>
-      </c>
-      <c r="E45" t="n">
-        <v>283</v>
-      </c>
       <c r="F45" t="n">
-        <v>380</v>
+        <v>14222.8224</v>
       </c>
       <c r="G45" t="n">
-        <v>285.3</v>
+        <v>34827.13489999999</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>280</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C46" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D46" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="E46" t="n">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F46" t="n">
-        <v>188</v>
+        <v>6212.6026</v>
       </c>
       <c r="G46" t="n">
-        <v>285.5</v>
+        <v>41039.73749999999</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>280</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="C47" t="n">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="D47" t="n">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="E47" t="n">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="F47" t="n">
-        <v>40</v>
+        <v>1210</v>
       </c>
       <c r="G47" t="n">
-        <v>285.65</v>
+        <v>42249.73749999999</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>280</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="C48" t="n">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="D48" t="n">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="E48" t="n">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="F48" t="n">
-        <v>11936.5922</v>
+        <v>1321.0375</v>
       </c>
       <c r="G48" t="n">
-        <v>285.8166666666667</v>
+        <v>42249.73749999999</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>280</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C49" t="n">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="D49" t="n">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="E49" t="n">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="F49" t="n">
-        <v>401.4496</v>
+        <v>7602.7016</v>
       </c>
       <c r="G49" t="n">
-        <v>285.9</v>
+        <v>49852.43909999999</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>280</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="C50" t="n">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="D50" t="n">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="E50" t="n">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="F50" t="n">
-        <v>992</v>
+        <v>7760.4304</v>
       </c>
       <c r="G50" t="n">
-        <v>286.0333333333334</v>
+        <v>57612.86949999999</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>280</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="C51" t="n">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="D51" t="n">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="E51" t="n">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="F51" t="n">
-        <v>857</v>
+        <v>3375.5844</v>
       </c>
       <c r="G51" t="n">
-        <v>286.15</v>
+        <v>60988.45389999999</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>280</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C52" t="n">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="D52" t="n">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="E52" t="n">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="F52" t="n">
-        <v>1857</v>
+        <v>4037.7288</v>
       </c>
       <c r="G52" t="n">
-        <v>286.2833333333334</v>
+        <v>65026.18269999998</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>1</v>
+      </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>280</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M52" t="n">
-        <v>1</v>
+        <v>1.052142857142857</v>
+      </c>
+      <c r="N52" t="n">
+        <v>1.010714285714286</v>
       </c>
     </row>
     <row r="53">
@@ -2288,99 +2566,108 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="C53" t="n">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D53" t="n">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="E53" t="n">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F53" t="n">
-        <v>1808</v>
+        <v>1037.8284</v>
       </c>
       <c r="G53" t="n">
-        <v>286.3666666666667</v>
+        <v>63988.35429999998</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>1</v>
+      </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="C54" t="n">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="D54" t="n">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="E54" t="n">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="F54" t="n">
-        <v>1040</v>
+        <v>1731.8041</v>
       </c>
       <c r="G54" t="n">
-        <v>286.3666666666667</v>
+        <v>65720.15839999999</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>1</v>
+      </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="C55" t="n">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="D55" t="n">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="E55" t="n">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="F55" t="n">
-        <v>3093.5948</v>
+        <v>12648.6831</v>
       </c>
       <c r="G55" t="n">
-        <v>286.4166666666667</v>
+        <v>53071.47529999998</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>1</v>
+      </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2390,1845 +2677,2661 @@
         <v>286</v>
       </c>
       <c r="C56" t="n">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D56" t="n">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E56" t="n">
         <v>286</v>
       </c>
       <c r="F56" t="n">
-        <v>1049.6946</v>
+        <v>6308.3726</v>
       </c>
       <c r="G56" t="n">
-        <v>286.5333333333334</v>
+        <v>46763.10269999998</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>1</v>
+      </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C57" t="n">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D57" t="n">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E57" t="n">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F57" t="n">
-        <v>159.1827</v>
+        <v>7699.3455</v>
       </c>
       <c r="G57" t="n">
-        <v>286.65</v>
+        <v>46763.10269999998</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C58" t="n">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D58" t="n">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="E58" t="n">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F58" t="n">
-        <v>440</v>
+        <v>553.9881</v>
       </c>
       <c r="G58" t="n">
-        <v>286.6833333333333</v>
+        <v>47317.09079999998</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="C59" t="n">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="D59" t="n">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="E59" t="n">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="F59" t="n">
-        <v>2790</v>
+        <v>1198.6063</v>
       </c>
       <c r="G59" t="n">
-        <v>286.7</v>
+        <v>48515.69709999998</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="C60" t="n">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="D60" t="n">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="E60" t="n">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="F60" t="n">
-        <v>638.9999</v>
+        <v>110</v>
       </c>
       <c r="G60" t="n">
-        <v>286.6833333333333</v>
+        <v>48515.69709999998</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>1</v>
+      </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="C61" t="n">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="D61" t="n">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="E61" t="n">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="F61" t="n">
-        <v>501</v>
+        <v>5983.8562</v>
       </c>
       <c r="G61" t="n">
-        <v>286.6666666666667</v>
+        <v>54499.55329999999</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="C62" t="n">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="D62" t="n">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="E62" t="n">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="F62" t="n">
-        <v>383</v>
+        <v>4054.3407</v>
       </c>
       <c r="G62" t="n">
-        <v>286.6333333333333</v>
+        <v>58553.89399999999</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>1</v>
+      </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="C63" t="n">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="D63" t="n">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="E63" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="F63" t="n">
-        <v>1854.7402</v>
+        <v>585.7668</v>
       </c>
       <c r="G63" t="n">
-        <v>286.6</v>
+        <v>57968.12719999999</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>1</v>
+      </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="C64" t="n">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="D64" t="n">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="E64" t="n">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="F64" t="n">
-        <v>3100.5948</v>
+        <v>2685.3778</v>
       </c>
       <c r="G64" t="n">
-        <v>286.5333333333334</v>
+        <v>60653.50499999999</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>1</v>
+      </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C65" t="n">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="D65" t="n">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="E65" t="n">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F65" t="n">
-        <v>3</v>
+        <v>786.4417</v>
       </c>
       <c r="G65" t="n">
-        <v>286.5</v>
+        <v>59867.06329999999</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>1</v>
+      </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="C66" t="n">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="D66" t="n">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="E66" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F66" t="n">
-        <v>7546.1955</v>
+        <v>8799.8923</v>
       </c>
       <c r="G66" t="n">
-        <v>286.4666666666666</v>
+        <v>51067.17099999999</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>1</v>
+      </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="C67" t="n">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="D67" t="n">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="E67" t="n">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="F67" t="n">
-        <v>390.0143</v>
+        <v>129.4357</v>
       </c>
       <c r="G67" t="n">
-        <v>286.4</v>
+        <v>51196.60669999999</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="C68" t="n">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="D68" t="n">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E68" t="n">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="F68" t="n">
-        <v>2061.4</v>
+        <v>958.7319</v>
       </c>
       <c r="G68" t="n">
-        <v>286.3</v>
+        <v>50237.87479999999</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>1</v>
+      </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="C69" t="n">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="D69" t="n">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="E69" t="n">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="F69" t="n">
-        <v>1783.2032</v>
+        <v>5394.9998</v>
       </c>
       <c r="G69" t="n">
-        <v>286.1833333333333</v>
+        <v>50237.87479999999</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>1</v>
+      </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="C70" t="n">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="D70" t="n">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="E70" t="n">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="F70" t="n">
-        <v>16110.3142</v>
+        <v>540.5583</v>
       </c>
       <c r="G70" t="n">
-        <v>286.1166666666667</v>
+        <v>49697.31649999999</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="C71" t="n">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="D71" t="n">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="E71" t="n">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="F71" t="n">
-        <v>4499.9144</v>
+        <v>542.2474</v>
       </c>
       <c r="G71" t="n">
-        <v>286.0166666666667</v>
+        <v>50239.56389999999</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>1</v>
+      </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C72" t="n">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="D72" t="n">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="E72" t="n">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F72" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="G72" t="n">
-        <v>285.9833333333333</v>
+        <v>50169.56389999999</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C73" t="n">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D73" t="n">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E73" t="n">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F73" t="n">
-        <v>100</v>
+        <v>43.0925</v>
       </c>
       <c r="G73" t="n">
-        <v>285.9833333333333</v>
+        <v>50126.47139999999</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>1</v>
+      </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C74" t="n">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D74" t="n">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="E74" t="n">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F74" t="n">
-        <v>10</v>
+        <v>380</v>
       </c>
       <c r="G74" t="n">
-        <v>285.9</v>
+        <v>50506.47139999999</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C75" t="n">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="D75" t="n">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="E75" t="n">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="F75" t="n">
-        <v>382.9999</v>
+        <v>188</v>
       </c>
       <c r="G75" t="n">
-        <v>285.85</v>
+        <v>50506.47139999999</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>1</v>
+      </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C76" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D76" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E76" t="n">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F76" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G76" t="n">
-        <v>285.75</v>
+        <v>50466.47139999999</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>1</v>
+      </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C77" t="n">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D77" t="n">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E77" t="n">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F77" t="n">
-        <v>10</v>
+        <v>11936.5922</v>
       </c>
       <c r="G77" t="n">
-        <v>285.6</v>
+        <v>62403.06359999999</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>1</v>
+      </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C78" t="n">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="D78" t="n">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="E78" t="n">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F78" t="n">
-        <v>1474.0237</v>
+        <v>401.4496</v>
       </c>
       <c r="G78" t="n">
-        <v>285.4</v>
+        <v>62403.06359999999</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>1</v>
+      </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="C79" t="n">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="D79" t="n">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="E79" t="n">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="F79" t="n">
-        <v>3142.5762</v>
+        <v>992</v>
       </c>
       <c r="G79" t="n">
-        <v>285.15</v>
+        <v>63395.06359999999</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>1</v>
+      </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="C80" t="n">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="D80" t="n">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="E80" t="n">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="F80" t="n">
-        <v>100</v>
+        <v>857</v>
       </c>
       <c r="G80" t="n">
-        <v>284.9333333333333</v>
+        <v>64252.06359999999</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>1</v>
+      </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="C81" t="n">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="D81" t="n">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E81" t="n">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="F81" t="n">
-        <v>375.7555</v>
+        <v>1857</v>
       </c>
       <c r="G81" t="n">
-        <v>284.65</v>
+        <v>66109.06359999999</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>1</v>
+      </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="C82" t="n">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="D82" t="n">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="E82" t="n">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="F82" t="n">
-        <v>2031.449</v>
+        <v>1808</v>
       </c>
       <c r="G82" t="n">
-        <v>284.3333333333333</v>
+        <v>64301.06359999999</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>1</v>
+      </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="C83" t="n">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="D83" t="n">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="E83" t="n">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="F83" t="n">
-        <v>1704.7493</v>
+        <v>1040</v>
       </c>
       <c r="G83" t="n">
-        <v>283.95</v>
+        <v>63261.06359999999</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>1</v>
+      </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="C84" t="n">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="D84" t="n">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="E84" t="n">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="F84" t="n">
-        <v>2898.9212</v>
+        <v>3093.5948</v>
       </c>
       <c r="G84" t="n">
-        <v>283.7</v>
+        <v>66354.6584</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="C85" t="n">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="D85" t="n">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="E85" t="n">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="F85" t="n">
-        <v>153.449</v>
+        <v>1049.6946</v>
       </c>
       <c r="G85" t="n">
-        <v>283.35</v>
+        <v>67404.353</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>1</v>
+      </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="C86" t="n">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="D86" t="n">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="E86" t="n">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="F86" t="n">
-        <v>4687.8438</v>
+        <v>159.1827</v>
       </c>
       <c r="G86" t="n">
-        <v>283.0833333333333</v>
+        <v>67404.353</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="C87" t="n">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="D87" t="n">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="E87" t="n">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="F87" t="n">
-        <v>564.284</v>
+        <v>440</v>
       </c>
       <c r="G87" t="n">
-        <v>282.8666666666667</v>
+        <v>66964.353</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>1</v>
+      </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C88" t="n">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="D88" t="n">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="E88" t="n">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="F88" t="n">
-        <v>1123.8769</v>
+        <v>2790</v>
       </c>
       <c r="G88" t="n">
-        <v>282.6833333333333</v>
+        <v>64174.353</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="C89" t="n">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="D89" t="n">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="E89" t="n">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="F89" t="n">
-        <v>1595.3514</v>
+        <v>638.9999</v>
       </c>
       <c r="G89" t="n">
-        <v>282.4166666666667</v>
+        <v>63535.3531</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="C90" t="n">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D90" t="n">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E90" t="n">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="F90" t="n">
-        <v>3376.7133</v>
+        <v>501</v>
       </c>
       <c r="G90" t="n">
-        <v>282.2166666666666</v>
+        <v>63535.3531</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C91" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D91" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="E91" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="F91" t="n">
-        <v>105.8146</v>
+        <v>383</v>
       </c>
       <c r="G91" t="n">
-        <v>282</v>
+        <v>63535.3531</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C92" t="n">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="D92" t="n">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="E92" t="n">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="F92" t="n">
-        <v>1140</v>
+        <v>1854.7402</v>
       </c>
       <c r="G92" t="n">
-        <v>281.7333333333333</v>
+        <v>63535.3531</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C93" t="n">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D93" t="n">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E93" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F93" t="n">
-        <v>786.4536000000001</v>
+        <v>3100.5948</v>
       </c>
       <c r="G93" t="n">
-        <v>281.4833333333333</v>
+        <v>60434.7583</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C94" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D94" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="E94" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="F94" t="n">
-        <v>609.6804</v>
+        <v>3</v>
       </c>
       <c r="G94" t="n">
-        <v>281.2666666666667</v>
+        <v>60437.7583</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C95" t="n">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="D95" t="n">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="E95" t="n">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="F95" t="n">
-        <v>609.6805000000001</v>
+        <v>7546.1955</v>
       </c>
       <c r="G95" t="n">
-        <v>281.0166666666667</v>
+        <v>67983.9538</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C96" t="n">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D96" t="n">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E96" t="n">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F96" t="n">
-        <v>2</v>
+        <v>390.0143</v>
       </c>
       <c r="G96" t="n">
-        <v>280.8166666666667</v>
+        <v>67593.93950000001</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C97" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D97" t="n">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E97" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F97" t="n">
-        <v>10</v>
+        <v>2061.4</v>
       </c>
       <c r="G97" t="n">
-        <v>280.6333333333333</v>
+        <v>65532.53950000001</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C98" t="n">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D98" t="n">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E98" t="n">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F98" t="n">
-        <v>1233.9048</v>
+        <v>1783.2032</v>
       </c>
       <c r="G98" t="n">
-        <v>280.3833333333333</v>
+        <v>65532.53950000001</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C99" t="n">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="D99" t="n">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="E99" t="n">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="F99" t="n">
-        <v>120</v>
+        <v>16110.3142</v>
       </c>
       <c r="G99" t="n">
-        <v>280.1333333333333</v>
+        <v>81642.85370000001</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C100" t="n">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="D100" t="n">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="E100" t="n">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="F100" t="n">
-        <v>88</v>
+        <v>4499.9144</v>
       </c>
       <c r="G100" t="n">
-        <v>279.8833333333333</v>
+        <v>77142.93930000001</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C101" t="n">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="D101" t="n">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="E101" t="n">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="F101" t="n">
-        <v>208.9</v>
+        <v>130</v>
       </c>
       <c r="G101" t="n">
-        <v>279.7</v>
+        <v>77272.93930000001</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C102" t="n">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D102" t="n">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E102" t="n">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F102" t="n">
-        <v>193</v>
+        <v>100</v>
       </c>
       <c r="G102" t="n">
-        <v>279.55</v>
+        <v>77272.93930000001</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C103" t="n">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="D103" t="n">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="E103" t="n">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="F103" t="n">
-        <v>1410.729</v>
+        <v>10</v>
       </c>
       <c r="G103" t="n">
-        <v>279.3666666666667</v>
+        <v>77272.93930000001</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="C104" t="n">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="D104" t="n">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="E104" t="n">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="F104" t="n">
-        <v>366.3003</v>
+        <v>382.9999</v>
       </c>
       <c r="G104" t="n">
-        <v>279.2</v>
+        <v>76889.93940000002</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C105" t="n">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="D105" t="n">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="E105" t="n">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="F105" t="n">
-        <v>295</v>
+        <v>30</v>
       </c>
       <c r="G105" t="n">
-        <v>279.0166666666667</v>
+        <v>76919.93940000002</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C106" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D106" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="E106" t="n">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="F106" t="n">
-        <v>505.729</v>
+        <v>10</v>
       </c>
       <c r="G106" t="n">
-        <v>278.8666666666667</v>
+        <v>76919.93940000002</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C107" t="n">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D107" t="n">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E107" t="n">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="F107" t="n">
-        <v>146</v>
+        <v>1474.0237</v>
       </c>
       <c r="G107" t="n">
-        <v>278.75</v>
+        <v>75445.91570000001</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C108" t="n">
         <v>276</v>
       </c>
       <c r="D108" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E108" t="n">
         <v>276</v>
       </c>
       <c r="F108" t="n">
-        <v>524</v>
+        <v>3142.5762</v>
       </c>
       <c r="G108" t="n">
-        <v>278.6166666666667</v>
+        <v>72303.33950000002</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C109" t="n">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D109" t="n">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E109" t="n">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="F109" t="n">
-        <v>169.0173</v>
+        <v>100</v>
       </c>
       <c r="G109" t="n">
-        <v>278.4833333333333</v>
+        <v>72403.33950000002</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C110" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D110" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E110" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F110" t="n">
-        <v>716.726</v>
+        <v>375.7555</v>
       </c>
       <c r="G110" t="n">
-        <v>278.3166666666667</v>
+        <v>72027.58400000002</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C111" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D111" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E111" t="n">
         <v>274</v>
       </c>
       <c r="F111" t="n">
-        <v>263.5958</v>
+        <v>2031.449</v>
       </c>
       <c r="G111" t="n">
-        <v>278.1</v>
+        <v>69996.13500000002</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>274</v>
+      </c>
+      <c r="C112" t="n">
+        <v>273</v>
+      </c>
+      <c r="D112" t="n">
+        <v>274</v>
+      </c>
+      <c r="E112" t="n">
+        <v>273</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1704.7493</v>
+      </c>
+      <c r="G112" t="n">
+        <v>68291.38570000003</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>273</v>
+      </c>
+      <c r="C113" t="n">
+        <v>274</v>
+      </c>
+      <c r="D113" t="n">
+        <v>274</v>
+      </c>
+      <c r="E113" t="n">
+        <v>273</v>
+      </c>
+      <c r="F113" t="n">
+        <v>2898.9212</v>
+      </c>
+      <c r="G113" t="n">
+        <v>71190.30690000003</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>274</v>
+      </c>
+      <c r="C114" t="n">
+        <v>274</v>
+      </c>
+      <c r="D114" t="n">
+        <v>274</v>
+      </c>
+      <c r="E114" t="n">
+        <v>274</v>
+      </c>
+      <c r="F114" t="n">
+        <v>153.449</v>
+      </c>
+      <c r="G114" t="n">
+        <v>71190.30690000003</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>273</v>
+      </c>
+      <c r="C115" t="n">
+        <v>274</v>
+      </c>
+      <c r="D115" t="n">
+        <v>274</v>
+      </c>
+      <c r="E115" t="n">
+        <v>270</v>
+      </c>
+      <c r="F115" t="n">
+        <v>4687.8438</v>
+      </c>
+      <c r="G115" t="n">
+        <v>71190.30690000003</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>273</v>
+      </c>
+      <c r="C116" t="n">
+        <v>273</v>
+      </c>
+      <c r="D116" t="n">
+        <v>273</v>
+      </c>
+      <c r="E116" t="n">
+        <v>273</v>
+      </c>
+      <c r="F116" t="n">
+        <v>564.284</v>
+      </c>
+      <c r="G116" t="n">
+        <v>70626.02290000003</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>275</v>
+      </c>
+      <c r="C117" t="n">
+        <v>275</v>
+      </c>
+      <c r="D117" t="n">
+        <v>275</v>
+      </c>
+      <c r="E117" t="n">
+        <v>275</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1123.8769</v>
+      </c>
+      <c r="G117" t="n">
+        <v>71749.89980000003</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>273</v>
+      </c>
+      <c r="C118" t="n">
+        <v>273</v>
+      </c>
+      <c r="D118" t="n">
+        <v>273</v>
+      </c>
+      <c r="E118" t="n">
+        <v>273</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1595.3514</v>
+      </c>
+      <c r="G118" t="n">
+        <v>70154.54840000003</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>273</v>
+      </c>
+      <c r="C119" t="n">
+        <v>278</v>
+      </c>
+      <c r="D119" t="n">
+        <v>278</v>
+      </c>
+      <c r="E119" t="n">
+        <v>273</v>
+      </c>
+      <c r="F119" t="n">
+        <v>3376.7133</v>
+      </c>
+      <c r="G119" t="n">
+        <v>73531.26170000003</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>277</v>
+      </c>
+      <c r="C120" t="n">
+        <v>277</v>
+      </c>
+      <c r="D120" t="n">
+        <v>277</v>
+      </c>
+      <c r="E120" t="n">
+        <v>277</v>
+      </c>
+      <c r="F120" t="n">
+        <v>105.8146</v>
+      </c>
+      <c r="G120" t="n">
+        <v>73425.44710000003</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>276</v>
+      </c>
+      <c r="C121" t="n">
+        <v>275</v>
+      </c>
+      <c r="D121" t="n">
+        <v>276</v>
+      </c>
+      <c r="E121" t="n">
+        <v>275</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1140</v>
+      </c>
+      <c r="G121" t="n">
+        <v>72285.44710000003</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>277</v>
+      </c>
+      <c r="C122" t="n">
+        <v>277</v>
+      </c>
+      <c r="D122" t="n">
+        <v>277</v>
+      </c>
+      <c r="E122" t="n">
+        <v>277</v>
+      </c>
+      <c r="F122" t="n">
+        <v>786.4536000000001</v>
+      </c>
+      <c r="G122" t="n">
+        <v>73071.90070000003</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>277</v>
+      </c>
+      <c r="C123" t="n">
+        <v>277</v>
+      </c>
+      <c r="D123" t="n">
+        <v>277</v>
+      </c>
+      <c r="E123" t="n">
+        <v>277</v>
+      </c>
+      <c r="F123" t="n">
+        <v>609.6804</v>
+      </c>
+      <c r="G123" t="n">
+        <v>73071.90070000003</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>276</v>
+      </c>
+      <c r="C124" t="n">
+        <v>276</v>
+      </c>
+      <c r="D124" t="n">
+        <v>276</v>
+      </c>
+      <c r="E124" t="n">
+        <v>276</v>
+      </c>
+      <c r="F124" t="n">
+        <v>609.6805000000001</v>
+      </c>
+      <c r="G124" t="n">
+        <v>72462.22020000003</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>277</v>
+      </c>
+      <c r="C125" t="n">
+        <v>277</v>
+      </c>
+      <c r="D125" t="n">
+        <v>277</v>
+      </c>
+      <c r="E125" t="n">
+        <v>277</v>
+      </c>
+      <c r="F125" t="n">
+        <v>2</v>
+      </c>
+      <c r="G125" t="n">
+        <v>72464.22020000003</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>277</v>
+      </c>
+      <c r="C126" t="n">
+        <v>277</v>
+      </c>
+      <c r="D126" t="n">
+        <v>277</v>
+      </c>
+      <c r="E126" t="n">
+        <v>277</v>
+      </c>
+      <c r="F126" t="n">
+        <v>10</v>
+      </c>
+      <c r="G126" t="n">
+        <v>72464.22020000003</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>275</v>
+      </c>
+      <c r="C127" t="n">
+        <v>275</v>
+      </c>
+      <c r="D127" t="n">
+        <v>275</v>
+      </c>
+      <c r="E127" t="n">
+        <v>275</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1233.9048</v>
+      </c>
+      <c r="G127" t="n">
+        <v>71230.31540000002</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>274</v>
+      </c>
+      <c r="C128" t="n">
+        <v>274</v>
+      </c>
+      <c r="D128" t="n">
+        <v>274</v>
+      </c>
+      <c r="E128" t="n">
+        <v>274</v>
+      </c>
+      <c r="F128" t="n">
+        <v>120</v>
+      </c>
+      <c r="G128" t="n">
+        <v>71110.31540000002</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>274</v>
+      </c>
+      <c r="C129" t="n">
+        <v>274</v>
+      </c>
+      <c r="D129" t="n">
+        <v>274</v>
+      </c>
+      <c r="E129" t="n">
+        <v>274</v>
+      </c>
+      <c r="F129" t="n">
+        <v>88</v>
+      </c>
+      <c r="G129" t="n">
+        <v>71110.31540000002</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-12 BackTest PIVX.xlsx
+++ b/BackTest/2019-11-12 BackTest PIVX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N129"/>
+  <dimension ref="A1:M129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>304.1712999999941</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,19 @@
         <v>1239.770399999994</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
+        <v>283</v>
+      </c>
+      <c r="J4" t="n">
+        <v>283</v>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +556,19 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>283</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +593,23 @@
         <v>1239.770399999994</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+        <v>283</v>
+      </c>
+      <c r="J6" t="n">
+        <v>283</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +634,23 @@
         <v>1039.770399999994</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+        <v>283</v>
+      </c>
+      <c r="J7" t="n">
+        <v>283</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,22 +675,23 @@
         <v>1039.770399999994</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="J8" t="n">
-        <v>280</v>
-      </c>
-      <c r="K8" t="n">
-        <v>280</v>
-      </c>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+        <v>283</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -712,26 +716,23 @@
         <v>2530.770399999994</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="J9" t="n">
-        <v>280</v>
-      </c>
-      <c r="K9" t="n">
-        <v>280</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+        <v>283</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -756,26 +757,23 @@
         <v>-5460.730400000006</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>283</v>
       </c>
       <c r="J10" t="n">
         <v>283</v>
       </c>
-      <c r="K10" t="n">
-        <v>280</v>
-      </c>
-      <c r="L10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -800,26 +798,23 @@
         <v>-6760.730400000006</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="J11" t="n">
-        <v>282</v>
-      </c>
-      <c r="K11" t="n">
-        <v>280</v>
-      </c>
-      <c r="L11" t="inlineStr">
+        <v>283</v>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -844,26 +839,23 @@
         <v>-6760.730400000006</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="J12" t="n">
-        <v>280</v>
-      </c>
-      <c r="K12" t="n">
-        <v>280</v>
-      </c>
-      <c r="L12" t="inlineStr">
+        <v>283</v>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -888,26 +880,21 @@
         <v>-6760.730400000006</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>280</v>
-      </c>
-      <c r="K13" t="n">
-        <v>280</v>
-      </c>
-      <c r="L13" t="inlineStr">
+        <v>283</v>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -932,26 +919,23 @@
         <v>-6760.730400000006</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="J14" t="n">
-        <v>280</v>
-      </c>
-      <c r="K14" t="n">
-        <v>280</v>
-      </c>
-      <c r="L14" t="inlineStr">
+        <v>283</v>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -976,26 +960,21 @@
         <v>-6770.730400000006</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
-        <v>280</v>
-      </c>
-      <c r="K15" t="n">
-        <v>280</v>
-      </c>
-      <c r="L15" t="inlineStr">
+        <v>283</v>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1020,26 +999,23 @@
         <v>-6770.730400000006</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="J16" t="n">
-        <v>274</v>
-      </c>
-      <c r="K16" t="n">
-        <v>280</v>
-      </c>
-      <c r="L16" t="inlineStr">
+        <v>283</v>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1064,26 +1040,21 @@
         <v>-6770.730400000006</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
-        <v>274</v>
-      </c>
-      <c r="K17" t="n">
-        <v>280</v>
-      </c>
-      <c r="L17" t="inlineStr">
+        <v>283</v>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1108,26 +1079,23 @@
         <v>-6640.141700000006</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="J18" t="n">
-        <v>274</v>
-      </c>
-      <c r="K18" t="n">
-        <v>280</v>
-      </c>
-      <c r="L18" t="inlineStr">
+        <v>283</v>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1152,26 +1120,21 @@
         <v>-6840.141700000006</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
-        <v>279</v>
-      </c>
-      <c r="K19" t="n">
-        <v>280</v>
-      </c>
-      <c r="L19" t="inlineStr">
+        <v>283</v>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1198,22 +1161,19 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>280</v>
-      </c>
-      <c r="L20" t="inlineStr">
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>283</v>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1240,22 +1200,19 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>280</v>
-      </c>
-      <c r="L21" t="inlineStr">
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>283</v>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1280,24 +1237,23 @@
         <v>-2348.141700000006</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>280</v>
-      </c>
-      <c r="L22" t="inlineStr">
+        <v>280</v>
+      </c>
+      <c r="J22" t="n">
+        <v>283</v>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1324,22 +1280,19 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>280</v>
-      </c>
-      <c r="L23" t="inlineStr">
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>283</v>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1366,22 +1319,19 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>280</v>
-      </c>
-      <c r="L24" t="inlineStr">
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>283</v>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1406,24 +1356,23 @@
         <v>-1938.141700000006</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>280</v>
-      </c>
-      <c r="L25" t="inlineStr">
+        <v>281</v>
+      </c>
+      <c r="J25" t="n">
+        <v>283</v>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1448,24 +1397,23 @@
         <v>-1938.141700000006</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>280</v>
-      </c>
-      <c r="L26" t="inlineStr">
+        <v>281</v>
+      </c>
+      <c r="J26" t="n">
+        <v>283</v>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1490,24 +1438,23 @@
         <v>-1938.141700000006</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>280</v>
-      </c>
-      <c r="L27" t="inlineStr">
+        <v>281</v>
+      </c>
+      <c r="J27" t="n">
+        <v>283</v>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1532,24 +1479,23 @@
         <v>-1938.141700000006</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>280</v>
-      </c>
-      <c r="L28" t="inlineStr">
+        <v>281</v>
+      </c>
+      <c r="J28" t="n">
+        <v>283</v>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1576,22 +1522,19 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>280</v>
-      </c>
-      <c r="L29" t="inlineStr">
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>283</v>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1618,22 +1561,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>280</v>
-      </c>
-      <c r="L30" t="inlineStr">
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>283</v>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1660,22 +1600,19 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>280</v>
-      </c>
-      <c r="L31" t="inlineStr">
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>283</v>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1702,22 +1639,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>280</v>
-      </c>
-      <c r="L32" t="inlineStr">
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>283</v>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1742,24 +1676,23 @@
         <v>2141.624399999994</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>280</v>
-      </c>
-      <c r="L33" t="inlineStr">
+        <v>283</v>
+      </c>
+      <c r="J33" t="n">
+        <v>283</v>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1784,24 +1717,23 @@
         <v>2141.624399999994</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>280</v>
-      </c>
-      <c r="L34" t="inlineStr">
+        <v>283</v>
+      </c>
+      <c r="J34" t="n">
+        <v>283</v>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1826,24 +1758,23 @@
         <v>2471.624399999994</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>280</v>
-      </c>
-      <c r="L35" t="inlineStr">
+        <v>283</v>
+      </c>
+      <c r="J35" t="n">
+        <v>283</v>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1870,22 +1801,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>280</v>
-      </c>
-      <c r="L36" t="inlineStr">
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>283</v>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1912,22 +1840,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>280</v>
-      </c>
-      <c r="L37" t="inlineStr">
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>283</v>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1954,22 +1879,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>280</v>
-      </c>
-      <c r="L38" t="inlineStr">
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>283</v>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1996,22 +1918,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>280</v>
-      </c>
-      <c r="L39" t="inlineStr">
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>283</v>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2038,22 +1957,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>280</v>
-      </c>
-      <c r="L40" t="inlineStr">
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>283</v>
+      </c>
+      <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2080,22 +1996,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>280</v>
-      </c>
-      <c r="L41" t="inlineStr">
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>283</v>
+      </c>
+      <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2122,22 +2035,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>280</v>
-      </c>
-      <c r="L42" t="inlineStr">
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>283</v>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2164,22 +2074,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>280</v>
-      </c>
-      <c r="L43" t="inlineStr">
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>283</v>
+      </c>
+      <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2206,22 +2113,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>280</v>
-      </c>
-      <c r="L44" t="inlineStr">
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>283</v>
+      </c>
+      <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2246,24 +2150,21 @@
         <v>34827.13489999999</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>280</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>283</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1.009134275618375</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2288,24 +2189,15 @@
         <v>41039.73749999999</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>280</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2330,24 +2222,15 @@
         <v>42249.73749999999</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>280</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2372,24 +2255,15 @@
         <v>42249.73749999999</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>280</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2414,24 +2288,15 @@
         <v>49852.43909999999</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>280</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2456,24 +2321,15 @@
         <v>57612.86949999999</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>280</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2498,24 +2354,15 @@
         <v>60988.45389999999</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>280</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2540,26 +2387,15 @@
         <v>65026.18269999998</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>280</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1.052142857142857</v>
-      </c>
-      <c r="N52" t="n">
-        <v>1.010714285714286</v>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2584,18 +2420,15 @@
         <v>63988.35429999998</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2620,18 +2453,15 @@
         <v>65720.15839999999</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2656,18 +2486,15 @@
         <v>53071.47529999998</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2694,16 +2521,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2730,16 +2554,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2766,16 +2587,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2802,16 +2620,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2838,16 +2653,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>1</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2874,16 +2686,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2910,16 +2719,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>1</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2946,16 +2752,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2982,16 +2785,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3016,18 +2816,15 @@
         <v>59867.06329999999</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3054,16 +2851,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3090,16 +2884,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3126,16 +2917,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3162,16 +2950,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3198,16 +2983,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3234,16 +3016,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3270,16 +3049,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3306,16 +3082,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3342,16 +3115,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3378,16 +3148,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3414,16 +3181,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3450,16 +3214,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3486,16 +3247,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3522,16 +3280,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3558,16 +3313,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3594,16 +3346,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3630,16 +3379,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3666,16 +3412,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3702,16 +3445,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3738,16 +3478,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3774,16 +3511,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3810,16 +3544,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3846,16 +3577,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3882,16 +3610,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3918,16 +3643,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3954,16 +3676,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3990,16 +3709,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4026,16 +3742,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4060,18 +3773,15 @@
         <v>60437.7583</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4096,18 +3806,15 @@
         <v>67983.9538</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4132,18 +3839,15 @@
         <v>67593.93950000001</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4168,18 +3872,15 @@
         <v>65532.53950000001</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4204,18 +3905,15 @@
         <v>65532.53950000001</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4242,16 +3940,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4276,18 +3971,15 @@
         <v>77142.93930000001</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4312,18 +4004,15 @@
         <v>77272.93930000001</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4348,18 +4037,15 @@
         <v>77272.93930000001</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4384,18 +4070,15 @@
         <v>77272.93930000001</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4420,18 +4103,15 @@
         <v>76889.93940000002</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4456,18 +4136,15 @@
         <v>76919.93940000002</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4494,16 +4171,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4530,16 +4204,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4566,16 +4237,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4602,16 +4270,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4638,16 +4303,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4674,16 +4336,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4710,16 +4369,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4744,18 +4400,15 @@
         <v>71190.30690000003</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4780,18 +4433,15 @@
         <v>71190.30690000003</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4816,18 +4466,15 @@
         <v>71190.30690000003</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4852,18 +4499,15 @@
         <v>70626.02290000003</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4888,18 +4532,15 @@
         <v>71749.89980000003</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4926,16 +4567,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4962,16 +4600,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4998,16 +4633,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5034,16 +4666,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5070,16 +4699,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5106,16 +4732,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5142,16 +4765,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5178,16 +4798,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5212,18 +4829,15 @@
         <v>72464.22020000003</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5248,18 +4862,15 @@
         <v>71230.31540000002</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5286,16 +4897,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5320,20 +4928,17 @@
         <v>71110.31540000002</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-12 BackTest PIVX.xlsx
+++ b/BackTest/2019-11-12 BackTest PIVX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>304.1712999999941</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -517,14 +517,10 @@
         <v>1239.770399999994</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>283</v>
-      </c>
-      <c r="J4" t="n">
-        <v>283</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
@@ -557,14 +553,8 @@
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>283</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -593,19 +583,11 @@
         <v>1239.770399999994</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>283</v>
-      </c>
-      <c r="J6" t="n">
-        <v>283</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -634,19 +616,11 @@
         <v>1039.770399999994</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>283</v>
-      </c>
-      <c r="J7" t="n">
-        <v>283</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -675,19 +649,15 @@
         <v>1039.770399999994</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>280</v>
       </c>
       <c r="J8" t="n">
-        <v>283</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -716,17 +686,17 @@
         <v>2530.770399999994</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>280</v>
       </c>
       <c r="J9" t="n">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -757,13 +727,13 @@
         <v>-5460.730400000006</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>283</v>
       </c>
       <c r="J10" t="n">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -798,13 +768,13 @@
         <v>-6760.730400000006</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>282</v>
       </c>
       <c r="J11" t="n">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -839,13 +809,13 @@
         <v>-6760.730400000006</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>280</v>
       </c>
       <c r="J12" t="n">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -880,11 +850,13 @@
         <v>-6760.730400000006</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>280</v>
+      </c>
       <c r="J13" t="n">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -919,13 +891,13 @@
         <v>-6760.730400000006</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>280</v>
       </c>
       <c r="J14" t="n">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -960,11 +932,13 @@
         <v>-6770.730400000006</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>280</v>
+      </c>
       <c r="J15" t="n">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -999,13 +973,13 @@
         <v>-6770.730400000006</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>274</v>
       </c>
       <c r="J16" t="n">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1040,11 +1014,13 @@
         <v>-6770.730400000006</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>274</v>
+      </c>
       <c r="J17" t="n">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1079,13 +1055,13 @@
         <v>-6640.141700000006</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>274</v>
       </c>
       <c r="J18" t="n">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1120,11 +1096,13 @@
         <v>-6840.141700000006</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>279</v>
+      </c>
       <c r="J19" t="n">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1159,11 +1137,13 @@
         <v>-2348.141700000006</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>277</v>
+      </c>
       <c r="J20" t="n">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1198,11 +1178,13 @@
         <v>-2348.141700000006</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>280</v>
+      </c>
       <c r="J21" t="n">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1237,13 +1219,13 @@
         <v>-2348.141700000006</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>280</v>
       </c>
       <c r="J22" t="n">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1278,11 +1260,13 @@
         <v>-1938.141700000006</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>280</v>
+      </c>
       <c r="J23" t="n">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1317,11 +1301,13 @@
         <v>-1938.141700000006</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>281</v>
+      </c>
       <c r="J24" t="n">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1356,13 +1342,13 @@
         <v>-1938.141700000006</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>281</v>
       </c>
       <c r="J25" t="n">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1397,13 +1383,13 @@
         <v>-1938.141700000006</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>281</v>
       </c>
       <c r="J26" t="n">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1438,13 +1424,13 @@
         <v>-1938.141700000006</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>281</v>
       </c>
       <c r="J27" t="n">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -1479,13 +1465,13 @@
         <v>-1938.141700000006</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>281</v>
       </c>
       <c r="J28" t="n">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1520,11 +1506,13 @@
         <v>-1597.928000000006</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>281</v>
+      </c>
       <c r="J29" t="n">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -1559,11 +1547,13 @@
         <v>-1597.928000000006</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>282</v>
+      </c>
       <c r="J30" t="n">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1598,11 +1588,13 @@
         <v>2141.624399999994</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>282</v>
+      </c>
       <c r="J31" t="n">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -1641,7 +1633,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -1676,13 +1668,11 @@
         <v>2141.624399999994</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
-      </c>
-      <c r="I33" t="n">
-        <v>283</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -1717,13 +1707,11 @@
         <v>2141.624399999994</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
-      </c>
-      <c r="I34" t="n">
-        <v>283</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -1758,13 +1746,11 @@
         <v>2471.624399999994</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
-      </c>
-      <c r="I35" t="n">
-        <v>283</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -1803,7 +1789,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -1842,7 +1828,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1881,7 +1867,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1920,7 +1906,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -1959,7 +1945,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -1998,7 +1984,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -2037,7 +2023,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -2076,7 +2062,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2115,7 +2101,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2150,19 +2136,19 @@
         <v>34827.13489999999</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1.009134275618375</v>
+        <v>1</v>
       </c>
       <c r="M45" t="inlineStr"/>
     </row>
@@ -2189,11 +2175,17 @@
         <v>41039.73749999999</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>280</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2222,11 +2214,17 @@
         <v>42249.73749999999</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>280</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2255,11 +2253,17 @@
         <v>42249.73749999999</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>280</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2288,11 +2292,17 @@
         <v>49852.43909999999</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>280</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2321,11 +2331,17 @@
         <v>57612.86949999999</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>280</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2354,11 +2370,17 @@
         <v>60988.45389999999</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>280</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2387,11 +2409,17 @@
         <v>65026.18269999998</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>280</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2420,11 +2448,17 @@
         <v>63988.35429999998</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>280</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2453,11 +2487,17 @@
         <v>65720.15839999999</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>280</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2486,11 +2526,17 @@
         <v>53071.47529999998</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>280</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2522,8 +2568,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>280</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2555,8 +2607,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>280</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2588,8 +2646,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>280</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2621,8 +2685,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>280</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2654,8 +2724,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>280</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2687,8 +2763,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>280</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2720,8 +2802,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>280</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2750,13 +2838,19 @@
         <v>57968.12719999999</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>280</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L63" t="n">
-        <v>1</v>
+        <v>1.030714285714286</v>
       </c>
       <c r="M63" t="inlineStr"/>
     </row>
@@ -2783,7 +2877,7 @@
         <v>60653.50499999999</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2816,7 +2910,7 @@
         <v>59867.06329999999</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2849,7 +2943,7 @@
         <v>51067.17099999999</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2882,7 +2976,7 @@
         <v>51196.60669999999</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2915,7 +3009,7 @@
         <v>50237.87479999999</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2948,7 +3042,7 @@
         <v>50237.87479999999</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2981,7 +3075,7 @@
         <v>49697.31649999999</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3014,7 +3108,7 @@
         <v>50239.56389999999</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3047,7 +3141,7 @@
         <v>50169.56389999999</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3080,7 +3174,7 @@
         <v>50126.47139999999</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3113,7 +3207,7 @@
         <v>50506.47139999999</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3146,7 +3240,7 @@
         <v>50506.47139999999</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3179,7 +3273,7 @@
         <v>50466.47139999999</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3212,7 +3306,7 @@
         <v>62403.06359999999</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3245,7 +3339,7 @@
         <v>62403.06359999999</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3278,7 +3372,7 @@
         <v>63395.06359999999</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3311,7 +3405,7 @@
         <v>64252.06359999999</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3344,7 +3438,7 @@
         <v>66109.06359999999</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3377,7 +3471,7 @@
         <v>64301.06359999999</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3410,7 +3504,7 @@
         <v>63261.06359999999</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3443,7 +3537,7 @@
         <v>66354.6584</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3476,7 +3570,7 @@
         <v>67404.353</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3509,7 +3603,7 @@
         <v>67404.353</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3542,7 +3636,7 @@
         <v>66964.353</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3575,7 +3669,7 @@
         <v>64174.353</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3608,7 +3702,7 @@
         <v>63535.3531</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3641,7 +3735,7 @@
         <v>63535.3531</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3674,7 +3768,7 @@
         <v>63535.3531</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3707,7 +3801,7 @@
         <v>63535.3531</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3740,7 +3834,7 @@
         <v>60434.7583</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3773,7 +3867,7 @@
         <v>60437.7583</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3806,7 +3900,7 @@
         <v>67983.9538</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3839,7 +3933,7 @@
         <v>67593.93950000001</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3872,7 +3966,7 @@
         <v>65532.53950000001</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3905,7 +3999,7 @@
         <v>65532.53950000001</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3938,7 +4032,7 @@
         <v>81642.85370000001</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3971,7 +4065,7 @@
         <v>77142.93930000001</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4004,7 +4098,7 @@
         <v>77272.93930000001</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4037,7 +4131,7 @@
         <v>77272.93930000001</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4070,7 +4164,7 @@
         <v>77272.93930000001</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4103,7 +4197,7 @@
         <v>76889.93940000002</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4136,7 +4230,7 @@
         <v>76919.93940000002</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4169,7 +4263,7 @@
         <v>76919.93940000002</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4202,7 +4296,7 @@
         <v>75445.91570000001</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4235,7 +4329,7 @@
         <v>72303.33950000002</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4268,7 +4362,7 @@
         <v>72403.33950000002</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4301,7 +4395,7 @@
         <v>72027.58400000002</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4334,7 +4428,7 @@
         <v>69996.13500000002</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4367,7 +4461,7 @@
         <v>68291.38570000003</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4400,7 +4494,7 @@
         <v>71190.30690000003</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4433,7 +4527,7 @@
         <v>71190.30690000003</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4466,7 +4560,7 @@
         <v>71190.30690000003</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4499,7 +4593,7 @@
         <v>70626.02290000003</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4532,7 +4626,7 @@
         <v>71749.89980000003</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4565,7 +4659,7 @@
         <v>70154.54840000003</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4598,7 +4692,7 @@
         <v>73531.26170000003</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4631,7 +4725,7 @@
         <v>73425.44710000003</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4664,7 +4758,7 @@
         <v>72285.44710000003</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4697,7 +4791,7 @@
         <v>73071.90070000003</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4730,7 +4824,7 @@
         <v>73071.90070000003</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4829,7 +4923,7 @@
         <v>72464.22020000003</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4862,7 +4956,7 @@
         <v>71230.31540000002</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4928,7 +5022,7 @@
         <v>71110.31540000002</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4939,6 +5033,6 @@
       <c r="M129" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-12 BackTest PIVX.xlsx
+++ b/BackTest/2019-11-12 BackTest PIVX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>304.1712999999941</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -649,14 +649,10 @@
         <v>1039.770399999994</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>280</v>
-      </c>
-      <c r="J8" t="n">
-        <v>280</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
@@ -686,19 +682,11 @@
         <v>2530.770399999994</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>280</v>
-      </c>
-      <c r="J9" t="n">
-        <v>280</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -727,19 +715,11 @@
         <v>-5460.730400000006</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>283</v>
-      </c>
-      <c r="J10" t="n">
-        <v>280</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -768,19 +748,11 @@
         <v>-6760.730400000006</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>282</v>
-      </c>
-      <c r="J11" t="n">
-        <v>280</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -809,19 +781,11 @@
         <v>-6760.730400000006</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>280</v>
-      </c>
-      <c r="J12" t="n">
-        <v>280</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -850,19 +814,11 @@
         <v>-6760.730400000006</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>280</v>
-      </c>
-      <c r="J13" t="n">
-        <v>280</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -891,19 +847,11 @@
         <v>-6760.730400000006</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>280</v>
-      </c>
-      <c r="J14" t="n">
-        <v>280</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -932,19 +880,11 @@
         <v>-6770.730400000006</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>280</v>
-      </c>
-      <c r="J15" t="n">
-        <v>280</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -973,19 +913,11 @@
         <v>-6770.730400000006</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>274</v>
-      </c>
-      <c r="J16" t="n">
-        <v>280</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1014,19 +946,11 @@
         <v>-6770.730400000006</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>274</v>
-      </c>
-      <c r="J17" t="n">
-        <v>280</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1055,19 +979,11 @@
         <v>-6640.141700000006</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>274</v>
-      </c>
-      <c r="J18" t="n">
-        <v>280</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1096,19 +1012,11 @@
         <v>-6840.141700000006</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>279</v>
-      </c>
-      <c r="J19" t="n">
-        <v>280</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1137,19 +1045,11 @@
         <v>-2348.141700000006</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>277</v>
-      </c>
-      <c r="J20" t="n">
-        <v>280</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1178,19 +1078,11 @@
         <v>-2348.141700000006</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>280</v>
-      </c>
-      <c r="J21" t="n">
-        <v>280</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1219,19 +1111,11 @@
         <v>-2348.141700000006</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>280</v>
-      </c>
-      <c r="J22" t="n">
-        <v>280</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1260,19 +1144,11 @@
         <v>-1938.141700000006</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>280</v>
-      </c>
-      <c r="J23" t="n">
-        <v>280</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1301,19 +1177,11 @@
         <v>-1938.141700000006</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>281</v>
-      </c>
-      <c r="J24" t="n">
-        <v>280</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1342,19 +1210,11 @@
         <v>-1938.141700000006</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>281</v>
-      </c>
-      <c r="J25" t="n">
-        <v>280</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1383,19 +1243,11 @@
         <v>-1938.141700000006</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>281</v>
-      </c>
-      <c r="J26" t="n">
-        <v>280</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1424,19 +1276,11 @@
         <v>-1938.141700000006</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>281</v>
-      </c>
-      <c r="J27" t="n">
-        <v>280</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1465,19 +1309,11 @@
         <v>-1938.141700000006</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>281</v>
-      </c>
-      <c r="J28" t="n">
-        <v>280</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1506,19 +1342,11 @@
         <v>-1597.928000000006</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>281</v>
-      </c>
-      <c r="J29" t="n">
-        <v>280</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1547,19 +1375,11 @@
         <v>-1597.928000000006</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>282</v>
-      </c>
-      <c r="J30" t="n">
-        <v>280</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1588,19 +1408,11 @@
         <v>2141.624399999994</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>282</v>
-      </c>
-      <c r="J31" t="n">
-        <v>280</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1629,17 +1441,11 @@
         <v>2141.624399999994</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>280</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1668,17 +1474,11 @@
         <v>2141.624399999994</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>280</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1707,17 +1507,11 @@
         <v>2141.624399999994</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>280</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1746,17 +1540,11 @@
         <v>2471.624399999994</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>280</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1788,14 +1576,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>280</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1827,14 +1609,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>280</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1866,14 +1642,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>280</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1905,14 +1675,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>280</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1944,14 +1708,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>280</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1983,14 +1741,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>280</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2022,14 +1774,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>280</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2058,17 +1804,15 @@
         <v>20614.31249999999</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>280</v>
+      </c>
       <c r="J43" t="n">
         <v>280</v>
       </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2097,15 +1841,17 @@
         <v>20604.31249999999</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>285</v>
+      </c>
       <c r="J44" t="n">
         <v>280</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L44" t="n">
@@ -2144,7 +1890,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L45" t="n">
@@ -2178,14 +1924,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>280</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2217,14 +1957,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>280</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2256,14 +1990,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>280</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2295,14 +2023,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>280</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2334,14 +2056,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>280</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2373,14 +2089,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>280</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2412,14 +2122,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>280</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2451,14 +2155,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>280</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2490,14 +2188,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>280</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2529,14 +2221,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>280</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2568,14 +2254,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>280</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2607,14 +2287,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>280</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2646,14 +2320,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>280</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2685,14 +2353,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>280</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2724,14 +2386,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>280</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2763,14 +2419,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>280</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2802,14 +2452,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>280</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2838,19 +2482,13 @@
         <v>57968.12719999999</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>280</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
-        <v>1.030714285714286</v>
+        <v>1</v>
       </c>
       <c r="M63" t="inlineStr"/>
     </row>
@@ -2877,7 +2515,7 @@
         <v>60653.50499999999</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2910,7 +2548,7 @@
         <v>59867.06329999999</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2943,7 +2581,7 @@
         <v>51067.17099999999</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2976,7 +2614,7 @@
         <v>51196.60669999999</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -3009,7 +2647,7 @@
         <v>50237.87479999999</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -3042,7 +2680,7 @@
         <v>50237.87479999999</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -3075,7 +2713,7 @@
         <v>49697.31649999999</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3108,7 +2746,7 @@
         <v>50239.56389999999</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3141,7 +2779,7 @@
         <v>50169.56389999999</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3174,7 +2812,7 @@
         <v>50126.47139999999</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3207,7 +2845,7 @@
         <v>50506.47139999999</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3240,7 +2878,7 @@
         <v>50506.47139999999</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3273,7 +2911,7 @@
         <v>50466.47139999999</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3306,7 +2944,7 @@
         <v>62403.06359999999</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3339,7 +2977,7 @@
         <v>62403.06359999999</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3372,7 +3010,7 @@
         <v>63395.06359999999</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3405,7 +3043,7 @@
         <v>64252.06359999999</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3438,7 +3076,7 @@
         <v>66109.06359999999</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3471,7 +3109,7 @@
         <v>64301.06359999999</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3504,7 +3142,7 @@
         <v>63261.06359999999</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3537,7 +3175,7 @@
         <v>66354.6584</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3570,7 +3208,7 @@
         <v>67404.353</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3603,7 +3241,7 @@
         <v>67404.353</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3636,7 +3274,7 @@
         <v>66964.353</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3669,7 +3307,7 @@
         <v>64174.353</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3702,7 +3340,7 @@
         <v>63535.3531</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3735,7 +3373,7 @@
         <v>63535.3531</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3768,7 +3406,7 @@
         <v>63535.3531</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3801,7 +3439,7 @@
         <v>63535.3531</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3834,7 +3472,7 @@
         <v>60434.7583</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3867,7 +3505,7 @@
         <v>60437.7583</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3900,7 +3538,7 @@
         <v>67983.9538</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3933,7 +3571,7 @@
         <v>67593.93950000001</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3966,7 +3604,7 @@
         <v>65532.53950000001</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3999,7 +3637,7 @@
         <v>65532.53950000001</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4032,7 +3670,7 @@
         <v>81642.85370000001</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4065,7 +3703,7 @@
         <v>77142.93930000001</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4098,7 +3736,7 @@
         <v>77272.93930000001</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4131,7 +3769,7 @@
         <v>77272.93930000001</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4164,7 +3802,7 @@
         <v>77272.93930000001</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4197,7 +3835,7 @@
         <v>76889.93940000002</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4263,7 +3901,7 @@
         <v>76919.93940000002</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4296,7 +3934,7 @@
         <v>75445.91570000001</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4329,7 +3967,7 @@
         <v>72303.33950000002</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4362,7 +4000,7 @@
         <v>72403.33950000002</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4395,7 +4033,7 @@
         <v>72027.58400000002</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4428,7 +4066,7 @@
         <v>69996.13500000002</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4461,7 +4099,7 @@
         <v>68291.38570000003</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4494,7 +4132,7 @@
         <v>71190.30690000003</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4527,7 +4165,7 @@
         <v>71190.30690000003</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4593,7 +4231,7 @@
         <v>70626.02290000003</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4659,10 +4297,14 @@
         <v>70154.54840000003</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>275</v>
+      </c>
+      <c r="J118" t="n">
+        <v>275</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
@@ -4692,11 +4334,17 @@
         <v>73531.26170000003</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>275</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4725,11 +4373,17 @@
         <v>73425.44710000003</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>275</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4758,11 +4412,17 @@
         <v>72285.44710000003</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>275</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4791,11 +4451,17 @@
         <v>73071.90070000003</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>275</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4824,11 +4490,17 @@
         <v>73071.90070000003</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>275</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4860,8 +4532,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>275</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4893,8 +4571,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>275</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4926,8 +4610,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>275</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4959,8 +4649,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>275</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4992,8 +4688,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>275</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5025,14 +4727,20 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>275</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
       <c r="M129" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-12 BackTest PIVX.xlsx
+++ b/BackTest/2019-11-12 BackTest PIVX.xlsx
@@ -451,7 +451,7 @@
         <v>304.1712999999941</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -649,10 +649,14 @@
         <v>1039.770399999994</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>280</v>
+      </c>
+      <c r="J8" t="n">
+        <v>280</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
@@ -682,11 +686,19 @@
         <v>2530.770399999994</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>280</v>
+      </c>
+      <c r="J9" t="n">
+        <v>280</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +727,19 @@
         <v>-5460.730400000006</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>283</v>
+      </c>
+      <c r="J10" t="n">
+        <v>280</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -751,8 +771,14 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>280</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +807,19 @@
         <v>-6760.730400000006</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>280</v>
+      </c>
+      <c r="J12" t="n">
+        <v>280</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +848,19 @@
         <v>-6760.730400000006</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>280</v>
+      </c>
+      <c r="J13" t="n">
+        <v>280</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +889,19 @@
         <v>-6760.730400000006</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>280</v>
+      </c>
+      <c r="J14" t="n">
+        <v>280</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +930,19 @@
         <v>-6770.730400000006</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>280</v>
+      </c>
+      <c r="J15" t="n">
+        <v>280</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +971,19 @@
         <v>-6770.730400000006</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>274</v>
+      </c>
+      <c r="J16" t="n">
+        <v>280</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1012,19 @@
         <v>-6770.730400000006</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>274</v>
+      </c>
+      <c r="J17" t="n">
+        <v>280</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1053,19 @@
         <v>-6640.141700000006</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>274</v>
+      </c>
+      <c r="J18" t="n">
+        <v>280</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1094,19 @@
         <v>-6840.141700000006</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>279</v>
+      </c>
+      <c r="J19" t="n">
+        <v>280</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1135,19 @@
         <v>-2348.141700000006</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>277</v>
+      </c>
+      <c r="J20" t="n">
+        <v>280</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1176,19 @@
         <v>-2348.141700000006</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>280</v>
+      </c>
+      <c r="J21" t="n">
+        <v>280</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1217,19 @@
         <v>-2348.141700000006</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>280</v>
+      </c>
+      <c r="J22" t="n">
+        <v>280</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1258,19 @@
         <v>-1938.141700000006</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>280</v>
+      </c>
+      <c r="J23" t="n">
+        <v>280</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1180,8 +1302,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>280</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1213,8 +1341,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>280</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1377,17 @@
         <v>-1938.141700000006</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>280</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1279,8 +1419,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>280</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1312,8 +1458,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>280</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1345,8 +1497,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>280</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1533,17 @@
         <v>-1597.928000000006</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>280</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1572,17 @@
         <v>2141.624399999994</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>280</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1611,17 @@
         <v>2141.624399999994</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>280</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1650,17 @@
         <v>2141.624399999994</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>280</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1689,17 @@
         <v>2141.624399999994</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>280</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1728,17 @@
         <v>2471.624399999994</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>280</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1576,8 +1770,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>280</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1609,8 +1809,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>280</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1642,8 +1848,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>280</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1675,8 +1887,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>280</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1708,8 +1926,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>280</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1741,8 +1965,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>280</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1774,8 +2004,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>280</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,15 +2040,17 @@
         <v>20614.31249999999</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>280</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
         <v>280</v>
       </c>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1841,17 +2079,15 @@
         <v>20604.31249999999</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>285</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
         <v>280</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L44" t="n">
@@ -1890,7 +2126,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L45" t="n">
@@ -1924,8 +2160,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>280</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1957,8 +2199,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>280</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1990,8 +2238,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>280</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2023,8 +2277,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>280</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2056,8 +2316,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>280</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2089,8 +2355,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>280</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2119,15 +2391,23 @@
         <v>65026.18269999998</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>280</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>1.052142857142857</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1.010714285714286</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2152,7 +2432,7 @@
         <v>63988.35429999998</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2185,7 +2465,7 @@
         <v>65720.15839999999</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2218,7 +2498,7 @@
         <v>53071.47529999998</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2251,7 +2531,7 @@
         <v>46763.10269999998</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2284,7 +2564,7 @@
         <v>46763.10269999998</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2317,7 +2597,7 @@
         <v>47317.09079999998</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2416,7 +2696,7 @@
         <v>54499.55329999999</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2449,7 +2729,7 @@
         <v>58553.89399999999</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2482,7 +2762,7 @@
         <v>57968.12719999999</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2515,7 +2795,7 @@
         <v>60653.50499999999</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2548,7 +2828,7 @@
         <v>59867.06329999999</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2581,7 +2861,7 @@
         <v>51067.17099999999</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2614,7 +2894,7 @@
         <v>51196.60669999999</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2647,7 +2927,7 @@
         <v>50237.87479999999</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2680,7 +2960,7 @@
         <v>50237.87479999999</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2713,7 +2993,7 @@
         <v>49697.31649999999</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2746,7 +3026,7 @@
         <v>50239.56389999999</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2779,7 +3059,7 @@
         <v>50169.56389999999</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2812,7 +3092,7 @@
         <v>50126.47139999999</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2845,7 +3125,7 @@
         <v>50506.47139999999</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2878,7 +3158,7 @@
         <v>50506.47139999999</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2911,7 +3191,7 @@
         <v>50466.47139999999</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2944,7 +3224,7 @@
         <v>62403.06359999999</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3109,7 +3389,7 @@
         <v>64301.06359999999</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3142,7 +3422,7 @@
         <v>63261.06359999999</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -4297,14 +4577,10 @@
         <v>70154.54840000003</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>275</v>
-      </c>
-      <c r="J118" t="n">
-        <v>275</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
@@ -4337,14 +4613,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>275</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4376,14 +4646,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>275</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4415,14 +4679,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>275</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4454,14 +4712,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>275</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4493,14 +4745,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>275</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4532,14 +4778,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>275</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4571,14 +4811,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>275</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4610,14 +4844,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>275</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4649,14 +4877,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>275</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4688,14 +4910,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>275</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4727,14 +4943,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>275</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-11-12 BackTest PIVX.xlsx
+++ b/BackTest/2019-11-12 BackTest PIVX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M129"/>
+  <dimension ref="A1:L129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>5769.6308</v>
       </c>
       <c r="G2" t="n">
-        <v>304.1712999999941</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>935.5991</v>
       </c>
       <c r="G3" t="n">
-        <v>1239.770399999994</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>217.6885</v>
       </c>
       <c r="G4" t="n">
-        <v>1239.770399999994</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>186.57</v>
       </c>
       <c r="G5" t="n">
-        <v>1239.770399999994</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>2342</v>
       </c>
       <c r="G6" t="n">
-        <v>1239.770399999994</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>200</v>
       </c>
       <c r="G7" t="n">
-        <v>1039.770399999994</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,22 +623,15 @@
         <v>214</v>
       </c>
       <c r="G8" t="n">
-        <v>1039.770399999994</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>280</v>
-      </c>
-      <c r="J8" t="n">
-        <v>280</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -683,26 +653,15 @@
         <v>1491</v>
       </c>
       <c r="G9" t="n">
-        <v>2530.770399999994</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>280</v>
-      </c>
-      <c r="J9" t="n">
-        <v>280</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -724,26 +683,15 @@
         <v>7991.5008</v>
       </c>
       <c r="G10" t="n">
-        <v>-5460.730400000006</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>283</v>
-      </c>
-      <c r="J10" t="n">
-        <v>280</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -765,24 +713,15 @@
         <v>1300</v>
       </c>
       <c r="G11" t="n">
-        <v>-6760.730400000006</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>280</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -804,26 +743,15 @@
         <v>2800</v>
       </c>
       <c r="G12" t="n">
-        <v>-6760.730400000006</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>280</v>
-      </c>
-      <c r="J12" t="n">
-        <v>280</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -845,26 +773,15 @@
         <v>1200</v>
       </c>
       <c r="G13" t="n">
-        <v>-6760.730400000006</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>280</v>
-      </c>
-      <c r="J13" t="n">
-        <v>280</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -886,26 +803,15 @@
         <v>610.003</v>
       </c>
       <c r="G14" t="n">
-        <v>-6760.730400000006</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>280</v>
-      </c>
-      <c r="J14" t="n">
-        <v>280</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -927,26 +833,15 @@
         <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>-6770.730400000006</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>280</v>
-      </c>
-      <c r="J15" t="n">
-        <v>280</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -968,26 +863,19 @@
         <v>4.975</v>
       </c>
       <c r="G16" t="n">
-        <v>-6770.730400000006</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>274</v>
       </c>
       <c r="I16" t="n">
         <v>274</v>
       </c>
-      <c r="J16" t="n">
-        <v>280</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1009,26 +897,23 @@
         <v>5071.7346</v>
       </c>
       <c r="G17" t="n">
-        <v>-6770.730400000006</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>274</v>
       </c>
       <c r="I17" t="n">
         <v>274</v>
       </c>
-      <c r="J17" t="n">
-        <v>280</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1050,26 +935,23 @@
         <v>130.5887</v>
       </c>
       <c r="G18" t="n">
-        <v>-6640.141700000006</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>274</v>
       </c>
       <c r="I18" t="n">
         <v>274</v>
       </c>
-      <c r="J18" t="n">
-        <v>280</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1091,26 +973,23 @@
         <v>200</v>
       </c>
       <c r="G19" t="n">
-        <v>-6840.141700000006</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>279</v>
       </c>
       <c r="I19" t="n">
-        <v>279</v>
-      </c>
-      <c r="J19" t="n">
-        <v>280</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1132,26 +1011,23 @@
         <v>4492</v>
       </c>
       <c r="G20" t="n">
-        <v>-2348.141700000006</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>277</v>
       </c>
       <c r="I20" t="n">
-        <v>277</v>
-      </c>
-      <c r="J20" t="n">
-        <v>280</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1173,26 +1049,23 @@
         <v>4676</v>
       </c>
       <c r="G21" t="n">
-        <v>-2348.141700000006</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>280</v>
       </c>
       <c r="I21" t="n">
-        <v>280</v>
-      </c>
-      <c r="J21" t="n">
-        <v>280</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1214,26 +1087,23 @@
         <v>3152.5282</v>
       </c>
       <c r="G22" t="n">
-        <v>-2348.141700000006</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>280</v>
       </c>
       <c r="I22" t="n">
-        <v>280</v>
-      </c>
-      <c r="J22" t="n">
-        <v>280</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1255,26 +1125,23 @@
         <v>410</v>
       </c>
       <c r="G23" t="n">
-        <v>-1938.141700000006</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>280</v>
       </c>
       <c r="I23" t="n">
-        <v>280</v>
-      </c>
-      <c r="J23" t="n">
-        <v>280</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1296,24 +1163,23 @@
         <v>321</v>
       </c>
       <c r="G24" t="n">
-        <v>-1938.141700000006</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>280</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>281</v>
+      </c>
+      <c r="I24" t="n">
+        <v>274</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1335,24 +1201,23 @@
         <v>2232</v>
       </c>
       <c r="G25" t="n">
-        <v>-1938.141700000006</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>280</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>281</v>
+      </c>
+      <c r="I25" t="n">
+        <v>274</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1374,24 +1239,23 @@
         <v>693.1609</v>
       </c>
       <c r="G26" t="n">
-        <v>-1938.141700000006</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>280</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>281</v>
+      </c>
+      <c r="I26" t="n">
+        <v>274</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1413,24 +1277,23 @@
         <v>130</v>
       </c>
       <c r="G27" t="n">
-        <v>-1938.141700000006</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>280</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>281</v>
+      </c>
+      <c r="I27" t="n">
+        <v>274</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1452,24 +1315,23 @@
         <v>589.3314</v>
       </c>
       <c r="G28" t="n">
-        <v>-1938.141700000006</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>280</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>281</v>
+      </c>
+      <c r="I28" t="n">
+        <v>274</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1491,24 +1353,21 @@
         <v>340.2137</v>
       </c>
       <c r="G29" t="n">
-        <v>-1597.928000000006</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>280</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>274</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1530,24 +1389,21 @@
         <v>2236</v>
       </c>
       <c r="G30" t="n">
-        <v>-1597.928000000006</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>280</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>274</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1569,24 +1425,21 @@
         <v>3739.5524</v>
       </c>
       <c r="G31" t="n">
-        <v>2141.624399999994</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>280</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>274</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1608,24 +1461,21 @@
         <v>200</v>
       </c>
       <c r="G32" t="n">
-        <v>2141.624399999994</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>280</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>274</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1647,24 +1497,21 @@
         <v>400</v>
       </c>
       <c r="G33" t="n">
-        <v>2141.624399999994</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>280</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>274</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1686,24 +1533,21 @@
         <v>3035.9038</v>
       </c>
       <c r="G34" t="n">
-        <v>2141.624399999994</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>280</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>274</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1725,24 +1569,21 @@
         <v>330</v>
       </c>
       <c r="G35" t="n">
-        <v>2471.624399999994</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>280</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>274</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1764,24 +1605,21 @@
         <v>300</v>
       </c>
       <c r="G36" t="n">
-        <v>2171.624399999994</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>280</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>274</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1803,24 +1641,21 @@
         <v>2786</v>
       </c>
       <c r="G37" t="n">
-        <v>4957.624399999994</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>280</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>274</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1842,24 +1677,21 @@
         <v>9093</v>
       </c>
       <c r="G38" t="n">
-        <v>14050.62439999999</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>280</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>274</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1881,24 +1713,21 @@
         <v>3741</v>
       </c>
       <c r="G39" t="n">
-        <v>10309.62439999999</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>280</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>274</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1920,24 +1749,21 @@
         <v>952</v>
       </c>
       <c r="G40" t="n">
-        <v>11261.62439999999</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>280</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>274</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1959,24 +1785,21 @@
         <v>150</v>
       </c>
       <c r="G41" t="n">
-        <v>11111.62439999999</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>280</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>274</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1998,24 +1821,21 @@
         <v>449.6397</v>
       </c>
       <c r="G42" t="n">
-        <v>10661.98469999999</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>280</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>274</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2037,24 +1857,21 @@
         <v>9952.327799999999</v>
       </c>
       <c r="G43" t="n">
-        <v>20614.31249999999</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>280</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>274</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2076,24 +1893,21 @@
         <v>10</v>
       </c>
       <c r="G44" t="n">
-        <v>20604.31249999999</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>280</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>274</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2115,24 +1929,21 @@
         <v>14222.8224</v>
       </c>
       <c r="G45" t="n">
-        <v>34827.13489999999</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>280</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>274</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2154,24 +1965,21 @@
         <v>6212.6026</v>
       </c>
       <c r="G46" t="n">
-        <v>41039.73749999999</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>280</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>274</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2193,24 +2001,21 @@
         <v>1210</v>
       </c>
       <c r="G47" t="n">
-        <v>42249.73749999999</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>280</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>274</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2232,24 +2037,21 @@
         <v>1321.0375</v>
       </c>
       <c r="G48" t="n">
-        <v>42249.73749999999</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>280</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>274</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2271,24 +2073,21 @@
         <v>7602.7016</v>
       </c>
       <c r="G49" t="n">
-        <v>49852.43909999999</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>280</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>274</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2310,24 +2109,21 @@
         <v>7760.4304</v>
       </c>
       <c r="G50" t="n">
-        <v>57612.86949999999</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>280</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>274</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2349,24 +2145,21 @@
         <v>3375.5844</v>
       </c>
       <c r="G51" t="n">
-        <v>60988.45389999999</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>280</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>274</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2388,25 +2181,22 @@
         <v>4037.7288</v>
       </c>
       <c r="G52" t="n">
-        <v>65026.18269999998</v>
-      </c>
-      <c r="H52" t="n">
         <v>2</v>
       </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>280</v>
-      </c>
-      <c r="K52" t="inlineStr">
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>274</v>
+      </c>
+      <c r="J52" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
+      <c r="K52" t="n">
+        <v>1.07529197080292</v>
+      </c>
       <c r="L52" t="n">
-        <v>1.052142857142857</v>
-      </c>
-      <c r="M52" t="n">
-        <v>1.010714285714286</v>
+        <v>1.036630036630037</v>
       </c>
     </row>
     <row r="53">
@@ -2429,18 +2219,15 @@
         <v>1037.8284</v>
       </c>
       <c r="G53" t="n">
-        <v>63988.35429999998</v>
-      </c>
-      <c r="H53" t="n">
         <v>2</v>
       </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2462,18 +2249,15 @@
         <v>1731.8041</v>
       </c>
       <c r="G54" t="n">
-        <v>65720.15839999999</v>
-      </c>
-      <c r="H54" t="n">
         <v>2</v>
       </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2495,18 +2279,15 @@
         <v>12648.6831</v>
       </c>
       <c r="G55" t="n">
-        <v>53071.47529999998</v>
-      </c>
-      <c r="H55" t="n">
         <v>2</v>
       </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2528,18 +2309,15 @@
         <v>6308.3726</v>
       </c>
       <c r="G56" t="n">
-        <v>46763.10269999998</v>
-      </c>
-      <c r="H56" t="n">
         <v>2</v>
       </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2561,18 +2339,15 @@
         <v>7699.3455</v>
       </c>
       <c r="G57" t="n">
-        <v>46763.10269999998</v>
-      </c>
-      <c r="H57" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2594,18 +2369,15 @@
         <v>553.9881</v>
       </c>
       <c r="G58" t="n">
-        <v>47317.09079999998</v>
-      </c>
-      <c r="H58" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2627,18 +2399,15 @@
         <v>1198.6063</v>
       </c>
       <c r="G59" t="n">
-        <v>48515.69709999998</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2660,18 +2429,15 @@
         <v>110</v>
       </c>
       <c r="G60" t="n">
-        <v>48515.69709999998</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2693,18 +2459,15 @@
         <v>5983.8562</v>
       </c>
       <c r="G61" t="n">
-        <v>54499.55329999999</v>
-      </c>
-      <c r="H61" t="n">
         <v>2</v>
       </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2726,18 +2489,15 @@
         <v>4054.3407</v>
       </c>
       <c r="G62" t="n">
-        <v>58553.89399999999</v>
-      </c>
-      <c r="H62" t="n">
         <v>2</v>
       </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2759,18 +2519,15 @@
         <v>585.7668</v>
       </c>
       <c r="G63" t="n">
-        <v>57968.12719999999</v>
-      </c>
-      <c r="H63" t="n">
         <v>2</v>
       </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2792,18 +2549,15 @@
         <v>2685.3778</v>
       </c>
       <c r="G64" t="n">
-        <v>60653.50499999999</v>
-      </c>
-      <c r="H64" t="n">
         <v>2</v>
       </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2825,18 +2579,15 @@
         <v>786.4417</v>
       </c>
       <c r="G65" t="n">
-        <v>59867.06329999999</v>
-      </c>
-      <c r="H65" t="n">
         <v>2</v>
       </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2858,18 +2609,15 @@
         <v>8799.8923</v>
       </c>
       <c r="G66" t="n">
-        <v>51067.17099999999</v>
-      </c>
-      <c r="H66" t="n">
         <v>2</v>
       </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2891,18 +2639,15 @@
         <v>129.4357</v>
       </c>
       <c r="G67" t="n">
-        <v>51196.60669999999</v>
-      </c>
-      <c r="H67" t="n">
         <v>2</v>
       </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2924,18 +2669,15 @@
         <v>958.7319</v>
       </c>
       <c r="G68" t="n">
-        <v>50237.87479999999</v>
-      </c>
-      <c r="H68" t="n">
         <v>2</v>
       </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2957,18 +2699,15 @@
         <v>5394.9998</v>
       </c>
       <c r="G69" t="n">
-        <v>50237.87479999999</v>
-      </c>
-      <c r="H69" t="n">
         <v>2</v>
       </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2990,18 +2729,15 @@
         <v>540.5583</v>
       </c>
       <c r="G70" t="n">
-        <v>49697.31649999999</v>
-      </c>
-      <c r="H70" t="n">
         <v>2</v>
       </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3023,18 +2759,15 @@
         <v>542.2474</v>
       </c>
       <c r="G71" t="n">
-        <v>50239.56389999999</v>
-      </c>
-      <c r="H71" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3056,18 +2789,15 @@
         <v>70</v>
       </c>
       <c r="G72" t="n">
-        <v>50169.56389999999</v>
-      </c>
-      <c r="H72" t="n">
         <v>2</v>
       </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3089,18 +2819,15 @@
         <v>43.0925</v>
       </c>
       <c r="G73" t="n">
-        <v>50126.47139999999</v>
-      </c>
-      <c r="H73" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3122,18 +2849,15 @@
         <v>380</v>
       </c>
       <c r="G74" t="n">
-        <v>50506.47139999999</v>
-      </c>
-      <c r="H74" t="n">
         <v>2</v>
       </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3155,18 +2879,15 @@
         <v>188</v>
       </c>
       <c r="G75" t="n">
-        <v>50506.47139999999</v>
-      </c>
-      <c r="H75" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3188,18 +2909,15 @@
         <v>40</v>
       </c>
       <c r="G76" t="n">
-        <v>50466.47139999999</v>
-      </c>
-      <c r="H76" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3221,18 +2939,15 @@
         <v>11936.5922</v>
       </c>
       <c r="G77" t="n">
-        <v>62403.06359999999</v>
-      </c>
-      <c r="H77" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3254,18 +2969,15 @@
         <v>401.4496</v>
       </c>
       <c r="G78" t="n">
-        <v>62403.06359999999</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3287,18 +2999,15 @@
         <v>992</v>
       </c>
       <c r="G79" t="n">
-        <v>63395.06359999999</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3320,18 +3029,15 @@
         <v>857</v>
       </c>
       <c r="G80" t="n">
-        <v>64252.06359999999</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3353,18 +3059,15 @@
         <v>1857</v>
       </c>
       <c r="G81" t="n">
-        <v>66109.06359999999</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3386,18 +3089,15 @@
         <v>1808</v>
       </c>
       <c r="G82" t="n">
-        <v>64301.06359999999</v>
-      </c>
-      <c r="H82" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3419,18 +3119,15 @@
         <v>1040</v>
       </c>
       <c r="G83" t="n">
-        <v>63261.06359999999</v>
-      </c>
-      <c r="H83" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3452,18 +3149,15 @@
         <v>3093.5948</v>
       </c>
       <c r="G84" t="n">
-        <v>66354.6584</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3485,18 +3179,15 @@
         <v>1049.6946</v>
       </c>
       <c r="G85" t="n">
-        <v>67404.353</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3518,18 +3209,15 @@
         <v>159.1827</v>
       </c>
       <c r="G86" t="n">
-        <v>67404.353</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3551,18 +3239,15 @@
         <v>440</v>
       </c>
       <c r="G87" t="n">
-        <v>66964.353</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3584,18 +3269,15 @@
         <v>2790</v>
       </c>
       <c r="G88" t="n">
-        <v>64174.353</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3617,18 +3299,15 @@
         <v>638.9999</v>
       </c>
       <c r="G89" t="n">
-        <v>63535.3531</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3650,18 +3329,15 @@
         <v>501</v>
       </c>
       <c r="G90" t="n">
-        <v>63535.3531</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3683,18 +3359,15 @@
         <v>383</v>
       </c>
       <c r="G91" t="n">
-        <v>63535.3531</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3716,18 +3389,15 @@
         <v>1854.7402</v>
       </c>
       <c r="G92" t="n">
-        <v>63535.3531</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3749,18 +3419,15 @@
         <v>3100.5948</v>
       </c>
       <c r="G93" t="n">
-        <v>60434.7583</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3782,18 +3449,15 @@
         <v>3</v>
       </c>
       <c r="G94" t="n">
-        <v>60437.7583</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3815,18 +3479,15 @@
         <v>7546.1955</v>
       </c>
       <c r="G95" t="n">
-        <v>67983.9538</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3848,18 +3509,15 @@
         <v>390.0143</v>
       </c>
       <c r="G96" t="n">
-        <v>67593.93950000001</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3881,18 +3539,15 @@
         <v>2061.4</v>
       </c>
       <c r="G97" t="n">
-        <v>65532.53950000001</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,18 +3569,15 @@
         <v>1783.2032</v>
       </c>
       <c r="G98" t="n">
-        <v>65532.53950000001</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3947,18 +3599,15 @@
         <v>16110.3142</v>
       </c>
       <c r="G99" t="n">
-        <v>81642.85370000001</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3980,18 +3629,15 @@
         <v>4499.9144</v>
       </c>
       <c r="G100" t="n">
-        <v>77142.93930000001</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4013,18 +3659,15 @@
         <v>130</v>
       </c>
       <c r="G101" t="n">
-        <v>77272.93930000001</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4046,18 +3689,15 @@
         <v>100</v>
       </c>
       <c r="G102" t="n">
-        <v>77272.93930000001</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4079,18 +3719,15 @@
         <v>10</v>
       </c>
       <c r="G103" t="n">
-        <v>77272.93930000001</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4112,18 +3749,15 @@
         <v>382.9999</v>
       </c>
       <c r="G104" t="n">
-        <v>76889.93940000002</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4145,18 +3779,15 @@
         <v>30</v>
       </c>
       <c r="G105" t="n">
-        <v>76919.93940000002</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4178,18 +3809,15 @@
         <v>10</v>
       </c>
       <c r="G106" t="n">
-        <v>76919.93940000002</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4211,18 +3839,15 @@
         <v>1474.0237</v>
       </c>
       <c r="G107" t="n">
-        <v>75445.91570000001</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4244,18 +3869,15 @@
         <v>3142.5762</v>
       </c>
       <c r="G108" t="n">
-        <v>72303.33950000002</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4277,18 +3899,19 @@
         <v>100</v>
       </c>
       <c r="G109" t="n">
-        <v>72403.33950000002</v>
+        <v>1</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>276</v>
+      </c>
+      <c r="I109" t="n">
+        <v>276</v>
+      </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4310,18 +3933,23 @@
         <v>375.7555</v>
       </c>
       <c r="G110" t="n">
-        <v>72027.58400000002</v>
+        <v>1</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>279</v>
+      </c>
+      <c r="I110" t="n">
+        <v>276</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4343,18 +3971,23 @@
         <v>2031.449</v>
       </c>
       <c r="G111" t="n">
-        <v>69996.13500000002</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>276</v>
+      </c>
+      <c r="I111" t="n">
+        <v>276</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4376,18 +4009,23 @@
         <v>1704.7493</v>
       </c>
       <c r="G112" t="n">
-        <v>68291.38570000003</v>
+        <v>1</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>275</v>
+      </c>
+      <c r="I112" t="n">
+        <v>276</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4409,18 +4047,23 @@
         <v>2898.9212</v>
       </c>
       <c r="G113" t="n">
-        <v>71190.30690000003</v>
+        <v>1</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>273</v>
+      </c>
+      <c r="I113" t="n">
+        <v>276</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4442,18 +4085,23 @@
         <v>153.449</v>
       </c>
       <c r="G114" t="n">
-        <v>71190.30690000003</v>
+        <v>1</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="I114" t="n">
+        <v>276</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4475,18 +4123,23 @@
         <v>4687.8438</v>
       </c>
       <c r="G115" t="n">
-        <v>71190.30690000003</v>
+        <v>1</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="I115" t="n">
+        <v>276</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4508,18 +4161,23 @@
         <v>564.284</v>
       </c>
       <c r="G116" t="n">
-        <v>70626.02290000003</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="I116" t="n">
+        <v>276</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4541,18 +4199,23 @@
         <v>1123.8769</v>
       </c>
       <c r="G117" t="n">
-        <v>71749.89980000003</v>
+        <v>1</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>273</v>
+      </c>
+      <c r="I117" t="n">
+        <v>276</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4574,18 +4237,23 @@
         <v>1595.3514</v>
       </c>
       <c r="G118" t="n">
-        <v>70154.54840000003</v>
+        <v>1</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>275</v>
+      </c>
+      <c r="I118" t="n">
+        <v>276</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4607,18 +4275,23 @@
         <v>3376.7133</v>
       </c>
       <c r="G119" t="n">
-        <v>73531.26170000003</v>
+        <v>1</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>273</v>
+      </c>
+      <c r="I119" t="n">
+        <v>276</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4640,18 +4313,23 @@
         <v>105.8146</v>
       </c>
       <c r="G120" t="n">
-        <v>73425.44710000003</v>
+        <v>1</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>278</v>
+      </c>
+      <c r="I120" t="n">
+        <v>276</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4673,18 +4351,23 @@
         <v>1140</v>
       </c>
       <c r="G121" t="n">
-        <v>72285.44710000003</v>
+        <v>1</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>277</v>
+      </c>
+      <c r="I121" t="n">
+        <v>276</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4706,18 +4389,23 @@
         <v>786.4536000000001</v>
       </c>
       <c r="G122" t="n">
-        <v>73071.90070000003</v>
+        <v>1</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>275</v>
+      </c>
+      <c r="I122" t="n">
+        <v>276</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4739,18 +4427,23 @@
         <v>609.6804</v>
       </c>
       <c r="G123" t="n">
-        <v>73071.90070000003</v>
+        <v>1</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>277</v>
+      </c>
+      <c r="I123" t="n">
+        <v>276</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4772,18 +4465,23 @@
         <v>609.6805000000001</v>
       </c>
       <c r="G124" t="n">
-        <v>72462.22020000003</v>
+        <v>1</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>277</v>
+      </c>
+      <c r="I124" t="n">
+        <v>276</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4805,18 +4503,23 @@
         <v>2</v>
       </c>
       <c r="G125" t="n">
-        <v>72464.22020000003</v>
+        <v>1</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>276</v>
+      </c>
+      <c r="I125" t="n">
+        <v>276</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4838,18 +4541,23 @@
         <v>10</v>
       </c>
       <c r="G126" t="n">
-        <v>72464.22020000003</v>
+        <v>1</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>277</v>
+      </c>
+      <c r="I126" t="n">
+        <v>276</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4871,18 +4579,23 @@
         <v>1233.9048</v>
       </c>
       <c r="G127" t="n">
-        <v>71230.31540000002</v>
+        <v>1</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>277</v>
+      </c>
+      <c r="I127" t="n">
+        <v>276</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4904,18 +4617,23 @@
         <v>120</v>
       </c>
       <c r="G128" t="n">
-        <v>71110.31540000002</v>
+        <v>1</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>275</v>
+      </c>
+      <c r="I128" t="n">
+        <v>276</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4937,18 +4655,23 @@
         <v>88</v>
       </c>
       <c r="G129" t="n">
-        <v>71110.31540000002</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="I129" t="n">
+        <v>276</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
